--- a/data/study search/database search/processed/post_AS/packages_for_full_text_download/study_set_6.xlsx
+++ b/data/study search/database search/processed/post_AS/packages_for_full_text_download/study_set_6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t xml:space="preserve">duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master_bachelor_thesis</t>
   </si>
   <si>
     <t xml:space="preserve">notes_PDF_download</t>
@@ -2630,321 +2642,361 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>7077</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6472</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
         <v>2022</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10677</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>2009</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7557</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>8645</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>2012</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10159</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>2022</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6955</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
         <v>2022</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>4960</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
         <v>2008</v>
@@ -2953,202 +3005,222 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8075</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E10" t="n">
         <v>2008</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K10"/>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>889</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E11" t="n">
         <v>2010</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>4671</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
         <v>1993</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10145</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2355</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
         <v>2021</v>
@@ -3157,36 +3229,40 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>8533</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E15" t="n">
         <v>2016</v>
@@ -3195,164 +3271,180 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7155</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6983</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E17" t="n">
         <v>2020</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7624</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E18" t="n">
         <v>2015</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7596</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E19" t="n">
         <v>2019</v>
@@ -3361,172 +3453,188 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5750</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E20" t="n">
         <v>2005</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7198</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E21" t="n">
         <v>2013</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7063</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E22" t="n">
         <v>2022</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>4447</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E23" t="n">
         <v>2016</v>
@@ -3535,258 +3643,282 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>8821</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E24" t="n">
         <v>2007</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>8650</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E25" t="n">
         <v>2017</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E26" t="n">
         <v>2022</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>9082</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E27" t="n">
         <v>2020</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6440</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E28" t="n">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6771</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E29" t="n">
         <v>2010</v>
@@ -3795,34 +3927,38 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6864</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E30" t="n">
         <v>2014</v>
@@ -3831,36 +3967,40 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6439</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E31" t="n">
         <v>2012</v>
@@ -3869,306 +4009,334 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3753</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E32" t="n">
         <v>2004</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>8540</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E33" t="n">
         <v>2023</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>9032</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E34" t="n">
         <v>2020</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2593</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E35" t="n">
         <v>2019</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>9668</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E36" t="n">
         <v>2000</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7941</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E37" t="n">
         <v>2021</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>9417</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E38" t="n">
         <v>2000</v>
@@ -4177,38 +4345,42 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7073</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E39" t="n">
         <v>2013</v>
@@ -4217,80 +4389,88 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K39"/>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>9211</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E40" t="n">
         <v>2002</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K40"/>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>8241</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E41" t="n">
         <v>2018</v>
@@ -4299,126 +4479,138 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K41"/>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7945</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E42" t="n">
         <v>2020</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7452</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D43" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E43" t="n">
         <v>2017</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1048</v>
       </c>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E44" t="n">
         <v>2011</v>
@@ -4427,36 +4619,40 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5001</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C45" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E45" t="n">
         <v>2007</v>
@@ -4465,214 +4661,234 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10374</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D46" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E46" t="n">
         <v>2015</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J46" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7046</v>
       </c>
       <c r="B47" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E47" t="n">
         <v>2016</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>4250</v>
       </c>
       <c r="B48" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C48" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D48" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E48" t="n">
         <v>2002</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M48" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10629</v>
       </c>
       <c r="B49" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E49" t="n">
         <v>2013</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10303</v>
       </c>
       <c r="B50" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E50" t="n">
         <v>2014</v>
@@ -4681,248 +4897,272 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J50" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>9190</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C51" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D51" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E51" t="n">
         <v>2016</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7910</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>6545</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C53" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D53" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E53" t="n">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K53"/>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10187</v>
       </c>
       <c r="B54" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E54" t="n">
         <v>1997</v>
       </c>
       <c r="F54" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K54" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>9600</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C55" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E55" t="n">
         <v>2006</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M55" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>6875</v>
       </c>
       <c r="B56" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C56" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D56" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E56" t="n">
         <v>2016</v>
@@ -4931,208 +5171,228 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K56"/>
       <c r="L56" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M56" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3724</v>
       </c>
       <c r="B57" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D57" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E57" t="n">
         <v>2015</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G57" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H57" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K57"/>
       <c r="L57" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M57" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1013</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D58" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E58" t="n">
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G58" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H58" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J58" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K58"/>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M58" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>6380</v>
       </c>
       <c r="B59" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D59" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E59" t="n">
         <v>2009</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J59" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M59" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1091</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D60" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E60" t="n">
         <v>2016</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H60" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J60" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M60" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>7642</v>
       </c>
       <c r="B61" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D61" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E61" t="n">
         <v>2009</v>
@@ -5141,34 +5401,38 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>8560</v>
       </c>
       <c r="B62" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C62" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D62" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E62" t="n">
         <v>2020</v>
@@ -5177,84 +5441,92 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J62" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K62" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L62" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M62" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>872</v>
       </c>
       <c r="B63" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C63" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D63" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
         <v>2009</v>
       </c>
       <c r="F63" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G63" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H63" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K63" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L63" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M63" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10029</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D64" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E64" t="n">
         <v>2022</v>
@@ -5263,126 +5535,138 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K64" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L64" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M64" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1049</v>
       </c>
       <c r="B65" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C65" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D65" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E65" t="n">
         <v>2008</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J65" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M65" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>585</v>
       </c>
       <c r="B66" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C66" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D66" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E66" t="n">
         <v>2021</v>
       </c>
       <c r="F66" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H66" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I66" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J66" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M66" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>8126</v>
       </c>
       <c r="B67" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C67" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D67" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E67" t="n">
         <v>2019</v>
@@ -5391,110 +5675,122 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J67" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>6446</v>
       </c>
       <c r="B68" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C68" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D68" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J68" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>7332</v>
       </c>
       <c r="B69" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C69" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D69" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E69" t="n">
         <v>2019</v>
       </c>
       <c r="F69" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J69" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K69"/>
       <c r="L69" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M69" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>8495</v>
       </c>
       <c r="B70" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E70" t="n">
         <v>2022</v>
@@ -5503,36 +5799,40 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J70" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K70"/>
       <c r="L70" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M70" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>8113</v>
       </c>
       <c r="B71" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C71" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E71" t="n">
         <v>2018</v>
@@ -5541,126 +5841,138 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J71" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K71"/>
       <c r="L71" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M71" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>948</v>
       </c>
       <c r="B72" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C72" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D72" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E72" t="n">
         <v>2009</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J72" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K72"/>
       <c r="L72" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M72" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>8480</v>
       </c>
       <c r="B73" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C73" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D73" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E73" t="n">
         <v>2010</v>
       </c>
       <c r="F73" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H73" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K73" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L73" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M73" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>4590</v>
       </c>
       <c r="B74" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C74" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D74" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E74" t="n">
         <v>2014</v>
@@ -5669,36 +5981,40 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J74" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="K74"/>
       <c r="L74" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M74" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>8629</v>
       </c>
       <c r="B75" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C75" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E75" t="n">
         <v>2022</v>
@@ -5707,162 +6023,178 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K75" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L75" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M75" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>8032</v>
       </c>
       <c r="B76" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C76" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D76" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E76" t="n">
         <v>2004</v>
       </c>
       <c r="F76" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I76" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J76" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K76" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L76" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="M76" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10241</v>
       </c>
       <c r="B77" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J77" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M77" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>1018</v>
       </c>
       <c r="B78" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C78" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D78" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E78" t="n">
         <v>2006</v>
       </c>
       <c r="F78" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G78" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H78" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J78" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K78"/>
       <c r="L78" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M78" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C79" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D79" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E79" t="n">
         <v>2018</v>
@@ -5871,36 +6203,40 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J79" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M79" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>6992</v>
       </c>
       <c r="B80" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C80" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D80" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E80" t="n">
         <v>2017</v>
@@ -5909,38 +6245,42 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J80" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K80" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L80" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M80" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C81" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D81" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E81" t="n">
         <v>2019</v>
@@ -5949,156 +6289,172 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J81" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K81"/>
       <c r="L81" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M81" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>7190</v>
       </c>
       <c r="B82" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J82" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C83" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D83" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E83" t="n">
         <v>2013</v>
       </c>
       <c r="F83" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G83" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H83" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="I83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J83" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="M83" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1040</v>
       </c>
       <c r="B84" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C84" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D84" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E84" t="n">
         <v>2006</v>
       </c>
       <c r="F84" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G84" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H84" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="I84" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J84" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M84" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>7257</v>
       </c>
       <c r="B85" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C85" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D85" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E85" t="n">
         <v>2012</v>
@@ -6107,208 +6463,228 @@
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J85" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M85" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
       <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3283</v>
       </c>
       <c r="B86" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C86" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D86" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E86" t="n">
         <v>2013</v>
       </c>
       <c r="F86" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="I86" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J86" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="M86" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>5187</v>
       </c>
       <c r="B87" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C87" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D87" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E87" t="n">
         <v>1987</v>
       </c>
       <c r="F87" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I87" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J87" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="K87"/>
       <c r="L87" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="M87" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>4269</v>
       </c>
       <c r="B88" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C88" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D88" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E88" t="n">
         <v>2004</v>
       </c>
       <c r="F88" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G88" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H88" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J88" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K88"/>
       <c r="L88" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="M88" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>8904</v>
       </c>
       <c r="B89" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C89" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D89" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E89" t="n">
         <v>2010</v>
       </c>
       <c r="F89" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I89" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J89" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M89" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>7195</v>
       </c>
       <c r="B90" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C90" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D90" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E90" t="n">
         <v>2017</v>
@@ -6317,80 +6693,88 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J90" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M90" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>1141</v>
       </c>
       <c r="B91" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C91" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D91" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E91" t="n">
         <v>2008</v>
       </c>
       <c r="F91" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J91" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="K91"/>
       <c r="L91" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="M91" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>9874</v>
       </c>
       <c r="B92" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C92" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D92" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E92" t="n">
         <v>2020</v>
@@ -6399,84 +6783,92 @@
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J92" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K92" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="L92" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="M92" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
       <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C93" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D93" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E93" t="n">
         <v>2016</v>
       </c>
       <c r="F93" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G93" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J93" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="K93" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="L93" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="M93" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
       <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>9158</v>
       </c>
       <c r="B94" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C94" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D94" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E94" t="n">
         <v>2022</v>
@@ -6485,122 +6877,134 @@
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J94" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K94" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="L94" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="M94" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>7443</v>
       </c>
       <c r="B95" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C95" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D95" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E95" t="n">
         <v>2021</v>
       </c>
       <c r="F95" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="I95" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J95" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="K95" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="L95" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="M95" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>6398</v>
       </c>
       <c r="B96" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C96" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D96" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E96" t="n">
         <v>2014</v>
       </c>
       <c r="F96" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J96" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="K96"/>
       <c r="L96" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="M96" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>10518</v>
       </c>
       <c r="B97" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C97" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D97" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E97" t="n">
         <v>2003</v>
@@ -6609,36 +7013,40 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J97" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K97"/>
       <c r="L97" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="M97" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>2590</v>
       </c>
       <c r="B98" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C98" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D98" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E98" t="n">
         <v>2020</v>
@@ -6647,80 +7055,88 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J98" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="K98"/>
       <c r="L98" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="M98" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>2915</v>
       </c>
       <c r="B99" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C99" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D99" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E99" t="n">
         <v>2000</v>
       </c>
       <c r="F99" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I99" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J99" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="M99" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>1124</v>
       </c>
       <c r="B100" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C100" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D100" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E100" t="n">
         <v>2009</v>
@@ -6729,36 +7145,40 @@
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J100" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="M100" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>9305</v>
       </c>
       <c r="B101" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C101" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D101" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E101" t="n">
         <v>2015</v>
@@ -6767,23 +7187,27 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J101" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="K101"/>
       <c r="L101" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="M101" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
